--- a/Time.xlsx
+++ b/Time.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>Min</t>
   </si>
@@ -107,12 +107,6 @@
     <t>15 Km XperFit</t>
   </si>
   <si>
-    <t>Palos Garza</t>
-  </si>
-  <si>
-    <t>RnR San Antonio</t>
-  </si>
-  <si>
     <t>MPM 2015</t>
   </si>
   <si>
@@ -129,6 +123,33 @@
   </si>
   <si>
     <t>21K Nuevo Laredo</t>
+  </si>
+  <si>
+    <t>10 Km Cambio de Vida</t>
+  </si>
+  <si>
+    <t>00:52:29</t>
+  </si>
+  <si>
+    <t>21K Palos Garza</t>
+  </si>
+  <si>
+    <t>21K RnR San Antonio</t>
+  </si>
+  <si>
+    <t>15K Fortaleciendo los Valores</t>
+  </si>
+  <si>
+    <t>15K</t>
+  </si>
+  <si>
+    <t>21K</t>
+  </si>
+  <si>
+    <t>42.195K</t>
+  </si>
+  <si>
+    <t>PATH TO MPM15</t>
   </si>
 </sst>
 </file>
@@ -139,7 +160,7 @@
     <numFmt numFmtId="164" formatCode="00"/>
     <numFmt numFmtId="165" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +179,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="48"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -195,7 +223,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -203,11 +231,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -227,6 +335,24 @@
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -291,9 +417,304 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>51875</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>391246</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>52197</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1480625" y="47625"/>
+          <a:ext cx="1716263" cy="1719072"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>43964</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47627</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>354311</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>52199</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3311039" y="47627"/>
+          <a:ext cx="3516039" cy="1719072"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>21872</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>52915</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>279555</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57487</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7303205" y="52915"/>
+          <a:ext cx="2586016" cy="1719072"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>35985</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>578910</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10111318" y="47625"/>
+          <a:ext cx="1717675" cy="1714500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>75307</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>52197</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="47625" y="47625"/>
+          <a:ext cx="1328374" cy="1719072"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:Q21" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:Q21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:Q22" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:Q22"/>
   <tableColumns count="17">
     <tableColumn id="1" name="Min"/>
     <tableColumn id="2" name="Seg"/>
@@ -614,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,6 +1050,7 @@
     <col min="17" max="17" width="12.7109375" customWidth="1"/>
     <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="28.140625" customWidth="1"/>
+    <col min="20" max="20" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -651,7 +1073,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>21</v>
@@ -675,7 +1097,7 @@
         <v>15</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
         <v>7</v>
@@ -701,7 +1123,7 @@
         <v>30</v>
       </c>
       <c r="D2" s="10" t="str">
-        <f t="shared" ref="D2:D21" si="0">CONCATENATE(TEXT(TRUNC(($A2*60+$B2)*D$1/60/60), "00"), ":", TEXT(TRUNC(((($A2*60+$B2)*D$1/60/60)-TRUNC(($A2*60+$B2)*D$1/60/60))*60), "00"), ":", TEXT(TRUNC(((((($A2*60+$B2)*D$1/60/60)-TRUNC(($A2*60+$B2)*D$1/60/60))*60)-TRUNC(((($A2*60+$B2)*D$1/60/60)-TRUNC(($A2*60+$B2)*D$1/60/60))*60))*60), "00"))</f>
+        <f t="shared" ref="D2:D22" si="0">CONCATENATE(TEXT(TRUNC(($A2*60+$B2)*D$1/60/60), "00"), ":", TEXT(TRUNC(((($A2*60+$B2)*D$1/60/60)-TRUNC(($A2*60+$B2)*D$1/60/60))*60), "00"), ":", TEXT(TRUNC(((((($A2*60+$B2)*D$1/60/60)-TRUNC(($A2*60+$B2)*D$1/60/60))*60)-TRUNC(((($A2*60+$B2)*D$1/60/60)-TRUNC(($A2*60+$B2)*D$1/60/60))*60))*60), "00"))</f>
         <v>00:05:36</v>
       </c>
       <c r="E2" s="10" t="str">
@@ -713,11 +1135,11 @@
         <v>00:07:00</v>
       </c>
       <c r="G2" t="str">
-        <f t="shared" ref="G2:G21" si="2">CONCATENATE(TEXT(TRUNC(($A2*60+$B2)*G$1/60/60), "00"), ":", TEXT(TRUNC(((($A2*60+$B2)*G$1/60/60)-TRUNC(($A2*60+$B2)*G$1/60/60))*60), "00"), ":", TEXT(TRUNC(((((($A2*60+$B2)*G$1/60/60)-TRUNC(($A2*60+$B2)*G$1/60/60))*60)-TRUNC(((($A2*60+$B2)*G$1/60/60)-TRUNC(($A2*60+$B2)*G$1/60/60))*60))*60), "00"))</f>
+        <f t="shared" ref="G2:G22" si="2">CONCATENATE(TEXT(TRUNC(($A2*60+$B2)*G$1/60/60), "00"), ":", TEXT(TRUNC(((($A2*60+$B2)*G$1/60/60)-TRUNC(($A2*60+$B2)*G$1/60/60))*60), "00"), ":", TEXT(TRUNC(((((($A2*60+$B2)*G$1/60/60)-TRUNC(($A2*60+$B2)*G$1/60/60))*60)-TRUNC(((($A2*60+$B2)*G$1/60/60)-TRUNC(($A2*60+$B2)*G$1/60/60))*60))*60), "00"))</f>
         <v>00:10:30</v>
       </c>
       <c r="H2" t="str">
-        <f t="shared" ref="H2:H21" si="3">CONCATENATE(TEXT(TRUNC(($A2*60+$B2)*H$1/60/60), "00"), ":", TEXT(TRUNC(((($A2*60+$B2)*H$1/60/60)-TRUNC(($A2*60+$B2)*H$1/60/60))*60), "00"), ":", TEXT(TRUNC(((((($A2*60+$B2)*H$1/60/60)-TRUNC(($A2*60+$B2)*H$1/60/60))*60)-TRUNC(((($A2*60+$B2)*H$1/60/60)-TRUNC(($A2*60+$B2)*H$1/60/60))*60))*60), "00"))</f>
+        <f t="shared" ref="H2:H22" si="3">CONCATENATE(TEXT(TRUNC(($A2*60+$B2)*H$1/60/60), "00"), ":", TEXT(TRUNC(((($A2*60+$B2)*H$1/60/60)-TRUNC(($A2*60+$B2)*H$1/60/60))*60), "00"), ":", TEXT(TRUNC(((((($A2*60+$B2)*H$1/60/60)-TRUNC(($A2*60+$B2)*H$1/60/60))*60)-TRUNC(((($A2*60+$B2)*H$1/60/60)-TRUNC(($A2*60+$B2)*H$1/60/60))*60))*60), "00"))</f>
         <v>00:14:00</v>
       </c>
       <c r="I2" t="str">
@@ -725,7 +1147,7 @@
         <v>00:17:30</v>
       </c>
       <c r="J2" t="str">
-        <f t="shared" ref="J2:J21" si="4">CONCATENATE(TEXT(TRUNC(($A2*60+$B2)*J$1/60/60), "00"), ":", TEXT(TRUNC(((($A2*60+$B2)*J$1/60/60)-TRUNC(($A2*60+$B2)*J$1/60/60))*60), "00"), ":", TEXT(TRUNC(((((($A2*60+$B2)*J$1/60/60)-TRUNC(($A2*60+$B2)*J$1/60/60))*60)-TRUNC(((($A2*60+$B2)*J$1/60/60)-TRUNC(($A2*60+$B2)*J$1/60/60))*60))*60), "00"))</f>
+        <f t="shared" ref="J2:J22" si="4">CONCATENATE(TEXT(TRUNC(($A2*60+$B2)*J$1/60/60), "00"), ":", TEXT(TRUNC(((($A2*60+$B2)*J$1/60/60)-TRUNC(($A2*60+$B2)*J$1/60/60))*60), "00"), ":", TEXT(TRUNC(((((($A2*60+$B2)*J$1/60/60)-TRUNC(($A2*60+$B2)*J$1/60/60))*60)-TRUNC(((($A2*60+$B2)*J$1/60/60)-TRUNC(($A2*60+$B2)*J$1/60/60))*60))*60), "00"))</f>
         <v>00:21:00</v>
       </c>
       <c r="K2" t="str">
@@ -737,7 +1159,7 @@
         <v>00:52:30</v>
       </c>
       <c r="M2" t="str">
-        <f t="shared" ref="M2:M21" si="5">CONCATENATE(TEXT(TRUNC(($A2*60+$B2)*M$1/60/60), "00"), ":", TEXT(TRUNC(((($A2*60+$B2)*M$1/60/60)-TRUNC(($A2*60+$B2)*M$1/60/60))*60), "00"), ":", TEXT(TRUNC(((((($A2*60+$B2)*M$1/60/60)-TRUNC(($A2*60+$B2)*M$1/60/60))*60)-TRUNC(((($A2*60+$B2)*M$1/60/60)-TRUNC(($A2*60+$B2)*M$1/60/60))*60))*60), "00"))</f>
+        <f t="shared" ref="M2:M22" si="5">CONCATENATE(TEXT(TRUNC(($A2*60+$B2)*M$1/60/60), "00"), ":", TEXT(TRUNC(((($A2*60+$B2)*M$1/60/60)-TRUNC(($A2*60+$B2)*M$1/60/60))*60), "00"), ":", TEXT(TRUNC(((((($A2*60+$B2)*M$1/60/60)-TRUNC(($A2*60+$B2)*M$1/60/60))*60)-TRUNC(((($A2*60+$B2)*M$1/60/60)-TRUNC(($A2*60+$B2)*M$1/60/60))*60))*60), "00"))</f>
         <v>00:56:00</v>
       </c>
       <c r="N2" t="str">
@@ -1280,7 +1702,7 @@
         <v>00:08:00</v>
       </c>
       <c r="E12" s="10" t="str">
-        <f t="shared" ref="E12:O16" si="8">CONCATENATE(TEXT(TRUNC(($A12*60+$B12)*E$1/60/60), "00"), ":", TEXT(TRUNC(((($A12*60+$B12)*E$1/60/60)-TRUNC(($A12*60+$B12)*E$1/60/60))*60), "00"), ":", TEXT(TRUNC(((((($A12*60+$B12)*E$1/60/60)-TRUNC(($A12*60+$B12)*E$1/60/60))*60)-TRUNC(((($A12*60+$B12)*E$1/60/60)-TRUNC(($A12*60+$B12)*E$1/60/60))*60))*60), "00"))</f>
+        <f t="shared" ref="E12:O17" si="8">CONCATENATE(TEXT(TRUNC(($A12*60+$B12)*E$1/60/60), "00"), ":", TEXT(TRUNC(((($A12*60+$B12)*E$1/60/60)-TRUNC(($A12*60+$B12)*E$1/60/60))*60), "00"), ":", TEXT(TRUNC(((((($A12*60+$B12)*E$1/60/60)-TRUNC(($A12*60+$B12)*E$1/60/60))*60)-TRUNC(((($A12*60+$B12)*E$1/60/60)-TRUNC(($A12*60+$B12)*E$1/60/60))*60))*60), "00"))</f>
         <v>00:05:00</v>
       </c>
       <c r="F12" t="str">
@@ -1449,490 +1871,578 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="12">
         <v>5</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="13">
+        <v>15</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>00:08:24</v>
+      </c>
+      <c r="E15" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>00:05:15</v>
+      </c>
+      <c r="F15" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>00:10:30</v>
+      </c>
+      <c r="G15" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>00:15:45</v>
+      </c>
+      <c r="H15" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>00:21:00</v>
+      </c>
+      <c r="I15" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>00:26:15</v>
+      </c>
+      <c r="J15" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>00:31:30</v>
+      </c>
+      <c r="K15" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>00:52:30</v>
+      </c>
+      <c r="L15" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>01:18:45</v>
+      </c>
+      <c r="M15" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>01:24:00</v>
+      </c>
+      <c r="N15" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>01:50:14</v>
+      </c>
+      <c r="O15" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>03:41:31</v>
+      </c>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="S15" s="16">
+        <v>42155</v>
+      </c>
+      <c r="T15" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
         <v>20</v>
       </c>
-      <c r="D15" s="10" t="str">
+      <c r="D16" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:08:32</v>
       </c>
-      <c r="E15" s="10" t="str">
+      <c r="E16" s="10" t="str">
         <f t="shared" si="8"/>
         <v>00:05:20</v>
       </c>
-      <c r="F15" t="str">
+      <c r="F16" t="str">
         <f t="shared" si="8"/>
         <v>00:10:40</v>
       </c>
-      <c r="G15" t="str">
+      <c r="G16" t="str">
         <f t="shared" si="2"/>
         <v>00:16:00</v>
       </c>
-      <c r="H15" t="str">
+      <c r="H16" t="str">
         <f t="shared" si="3"/>
         <v>00:21:19</v>
       </c>
-      <c r="I15" t="str">
+      <c r="I16" t="str">
         <f t="shared" si="8"/>
         <v>00:26:40</v>
       </c>
-      <c r="J15" t="str">
+      <c r="J16" t="str">
         <f t="shared" si="4"/>
         <v>00:32:00</v>
       </c>
-      <c r="K15" t="str">
+      <c r="K16" t="str">
         <f t="shared" si="8"/>
         <v>00:53:20</v>
       </c>
-      <c r="L15" t="str">
+      <c r="L16" t="str">
         <f t="shared" si="8"/>
         <v>01:20:00</v>
       </c>
-      <c r="M15" t="str">
+      <c r="M16" t="str">
         <f t="shared" si="5"/>
         <v>01:25:19</v>
       </c>
-      <c r="N15" t="str">
+      <c r="N16" t="str">
         <f t="shared" si="8"/>
         <v>01:52:00</v>
       </c>
-      <c r="O15" t="str">
+      <c r="O16" t="str">
         <f t="shared" si="8"/>
         <v>03:45:02</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
         <v>5</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B17" s="12">
         <v>27</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="14" t="str">
+      <c r="C17" s="12"/>
+      <c r="D17" s="14" t="str">
         <f t="shared" si="0"/>
         <v>00:08:43</v>
       </c>
-      <c r="E16" s="14" t="str">
+      <c r="E17" s="14" t="str">
         <f t="shared" si="8"/>
         <v>00:05:27</v>
       </c>
-      <c r="F16" s="12" t="str">
+      <c r="F17" s="12" t="str">
         <f t="shared" si="8"/>
         <v>00:10:54</v>
       </c>
-      <c r="G16" s="12" t="str">
+      <c r="G17" s="12" t="str">
         <f t="shared" si="2"/>
         <v>00:16:21</v>
       </c>
-      <c r="H16" s="12" t="str">
+      <c r="H17" s="12" t="str">
         <f t="shared" si="3"/>
         <v>00:21:48</v>
       </c>
-      <c r="I16" s="12" t="str">
+      <c r="I17" s="12" t="str">
         <f t="shared" si="8"/>
         <v>00:27:15</v>
       </c>
-      <c r="J16" s="12" t="str">
+      <c r="J17" s="12" t="str">
         <f t="shared" si="4"/>
         <v>00:32:42</v>
       </c>
-      <c r="K16" s="12" t="str">
+      <c r="K17" s="12" t="str">
         <f t="shared" si="8"/>
         <v>00:54:30</v>
       </c>
-      <c r="L16" s="12" t="str">
+      <c r="L17" s="12" t="str">
         <f t="shared" si="8"/>
         <v>01:21:45</v>
       </c>
-      <c r="M16" s="12" t="str">
+      <c r="M17" s="12" t="str">
         <f t="shared" si="5"/>
         <v>01:27:12</v>
       </c>
-      <c r="N16" s="11" t="str">
+      <c r="N17" s="11" t="str">
         <f t="shared" si="8"/>
         <v>01:54:26</v>
       </c>
-      <c r="O16" s="12" t="str">
+      <c r="O17" s="12" t="str">
         <f t="shared" si="8"/>
         <v>03:49:57</v>
       </c>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="15" t="s">
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="S16" s="16">
+      <c r="S17" s="16">
         <v>41952</v>
       </c>
-      <c r="T16" s="12" t="s">
+      <c r="T17" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>5</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>30</v>
       </c>
-      <c r="D17" s="10" t="str">
+      <c r="D18" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:08:48</v>
       </c>
-      <c r="E17" s="10" t="str">
-        <f t="shared" ref="E17:O20" si="9">CONCATENATE(TEXT(TRUNC(($A17*60+$B17)*E$1/60/60), "00"), ":", TEXT(TRUNC(((($A17*60+$B17)*E$1/60/60)-TRUNC(($A17*60+$B17)*E$1/60/60))*60), "00"), ":", TEXT(TRUNC(((((($A17*60+$B17)*E$1/60/60)-TRUNC(($A17*60+$B17)*E$1/60/60))*60)-TRUNC(((($A17*60+$B17)*E$1/60/60)-TRUNC(($A17*60+$B17)*E$1/60/60))*60))*60), "00"))</f>
+      <c r="E18" s="10" t="str">
+        <f t="shared" ref="E18:O21" si="9">CONCATENATE(TEXT(TRUNC(($A18*60+$B18)*E$1/60/60), "00"), ":", TEXT(TRUNC(((($A18*60+$B18)*E$1/60/60)-TRUNC(($A18*60+$B18)*E$1/60/60))*60), "00"), ":", TEXT(TRUNC(((((($A18*60+$B18)*E$1/60/60)-TRUNC(($A18*60+$B18)*E$1/60/60))*60)-TRUNC(((($A18*60+$B18)*E$1/60/60)-TRUNC(($A18*60+$B18)*E$1/60/60))*60))*60), "00"))</f>
         <v>00:05:30</v>
       </c>
-      <c r="F17" t="str">
+      <c r="F18" t="str">
         <f t="shared" si="9"/>
         <v>00:11:00</v>
       </c>
-      <c r="G17" t="str">
+      <c r="G18" t="str">
         <f t="shared" si="2"/>
         <v>00:16:30</v>
       </c>
-      <c r="H17" t="str">
+      <c r="H18" t="str">
         <f t="shared" si="3"/>
         <v>00:22:00</v>
       </c>
-      <c r="I17" t="str">
+      <c r="I18" t="str">
         <f t="shared" si="9"/>
         <v>00:27:30</v>
       </c>
-      <c r="J17" t="str">
+      <c r="J18" t="str">
         <f t="shared" si="4"/>
         <v>00:33:00</v>
       </c>
-      <c r="K17" t="str">
+      <c r="K18" t="str">
         <f t="shared" si="9"/>
         <v>00:55:00</v>
       </c>
-      <c r="L17" t="str">
+      <c r="L18" t="str">
         <f t="shared" si="9"/>
         <v>01:22:30</v>
       </c>
-      <c r="M17" t="str">
+      <c r="M18" t="str">
         <f t="shared" si="5"/>
         <v>01:28:00</v>
       </c>
-      <c r="N17" t="str">
+      <c r="N18" t="str">
         <f t="shared" si="9"/>
         <v>01:55:30</v>
       </c>
-      <c r="O17" t="str">
+      <c r="O18" t="str">
         <f t="shared" si="9"/>
         <v>03:52:04</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
         <v>5</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B19" s="12">
         <v>48</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="14" t="str">
+      <c r="C19" s="12"/>
+      <c r="D19" s="14" t="str">
         <f t="shared" si="0"/>
         <v>00:09:16</v>
       </c>
-      <c r="E18" s="14" t="str">
+      <c r="E19" s="14" t="str">
         <f t="shared" si="9"/>
         <v>00:05:48</v>
       </c>
-      <c r="F18" s="12" t="str">
+      <c r="F19" s="12" t="str">
         <f t="shared" si="9"/>
         <v>00:11:36</v>
       </c>
-      <c r="G18" s="12" t="str">
+      <c r="G19" s="12" t="str">
         <f t="shared" si="2"/>
         <v>00:17:23</v>
       </c>
-      <c r="H18" s="12" t="str">
+      <c r="H19" s="12" t="str">
         <f t="shared" si="3"/>
         <v>00:23:12</v>
       </c>
-      <c r="I18" s="12" t="str">
+      <c r="I19" s="12" t="str">
         <f t="shared" si="9"/>
         <v>00:29:00</v>
       </c>
-      <c r="J18" s="11" t="str">
+      <c r="J19" s="11" t="str">
         <f t="shared" si="4"/>
         <v>00:34:47</v>
       </c>
-      <c r="K18" s="12" t="str">
+      <c r="K19" s="12" t="str">
         <f t="shared" si="9"/>
         <v>00:58:00</v>
       </c>
-      <c r="L18" s="12" t="str">
+      <c r="L19" s="12" t="str">
         <f t="shared" si="9"/>
         <v>01:27:00</v>
       </c>
-      <c r="M18" s="12" t="str">
+      <c r="M19" s="12" t="str">
         <f t="shared" si="5"/>
         <v>01:32:47</v>
       </c>
-      <c r="N18" s="12" t="str">
+      <c r="N19" s="12" t="str">
         <f t="shared" si="9"/>
         <v>02:01:47</v>
       </c>
-      <c r="O18" s="12" t="str">
+      <c r="O19" s="12" t="str">
         <f t="shared" si="9"/>
         <v>04:04:43</v>
       </c>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="S18" s="16">
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="S19" s="16">
         <v>41728</v>
       </c>
-      <c r="T18" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="T19" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>5</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B20" s="1">
         <v>50</v>
       </c>
-      <c r="D19" s="10" t="str">
+      <c r="D20" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:09:20</v>
       </c>
-      <c r="E19" s="10" t="str">
+      <c r="E20" s="10" t="str">
         <f t="shared" si="9"/>
         <v>00:05:50</v>
       </c>
-      <c r="F19" t="str">
+      <c r="F20" t="str">
         <f t="shared" si="9"/>
         <v>00:11:40</v>
       </c>
-      <c r="G19" t="str">
+      <c r="G20" t="str">
         <f t="shared" si="2"/>
         <v>00:17:30</v>
       </c>
-      <c r="H19" t="str">
+      <c r="H20" t="str">
         <f t="shared" si="3"/>
         <v>00:23:19</v>
       </c>
-      <c r="I19" t="str">
+      <c r="I20" t="str">
         <f t="shared" si="9"/>
         <v>00:29:10</v>
       </c>
-      <c r="J19" t="str">
+      <c r="J20" t="str">
         <f t="shared" si="4"/>
         <v>00:35:00</v>
       </c>
-      <c r="K19" t="str">
+      <c r="K20" t="str">
         <f t="shared" si="9"/>
         <v>00:58:20</v>
       </c>
-      <c r="L19" t="str">
+      <c r="L20" t="str">
         <f t="shared" si="9"/>
         <v>01:27:29</v>
       </c>
-      <c r="M19" t="str">
+      <c r="M20" t="str">
         <f t="shared" si="5"/>
         <v>01:33:20</v>
       </c>
-      <c r="N19" t="str">
+      <c r="N20" t="str">
         <f t="shared" si="9"/>
         <v>02:02:29</v>
       </c>
-      <c r="O19" t="str">
+      <c r="O20" t="str">
         <f t="shared" si="9"/>
         <v>04:06:08</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>6</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B21" s="1">
         <v>0</v>
       </c>
-      <c r="D20" s="10" t="str">
-        <f>CONCATENATE(TEXT(TRUNC(($A20*60+$B20)*D$1/60/60), "00"), ":", TEXT(TRUNC(((($A20*60+$B20)*D$1/60/60)-TRUNC(($A20*60+$B20)*D$1/60/60))*60), "00"), ":", TEXT(TRUNC(((((($A20*60+$B20)*D$1/60/60)-TRUNC(($A20*60+$B20)*D$1/60/60))*60)-TRUNC(((($A20*60+$B20)*D$1/60/60)-TRUNC(($A20*60+$B20)*D$1/60/60))*60))*60), "00"))</f>
+      <c r="D21" s="10" t="str">
+        <f>CONCATENATE(TEXT(TRUNC(($A21*60+$B21)*D$1/60/60), "00"), ":", TEXT(TRUNC(((($A21*60+$B21)*D$1/60/60)-TRUNC(($A21*60+$B21)*D$1/60/60))*60), "00"), ":", TEXT(TRUNC(((((($A21*60+$B21)*D$1/60/60)-TRUNC(($A21*60+$B21)*D$1/60/60))*60)-TRUNC(((($A21*60+$B21)*D$1/60/60)-TRUNC(($A21*60+$B21)*D$1/60/60))*60))*60), "00"))</f>
         <v>00:09:36</v>
       </c>
-      <c r="E20" s="10" t="str">
+      <c r="E21" s="10" t="str">
         <f t="shared" si="9"/>
         <v>00:06:00</v>
       </c>
-      <c r="F20" t="str">
+      <c r="F21" t="str">
         <f t="shared" si="9"/>
         <v>00:12:00</v>
       </c>
-      <c r="G20" t="str">
+      <c r="G21" t="str">
         <f t="shared" si="2"/>
         <v>00:18:00</v>
       </c>
-      <c r="H20" t="str">
+      <c r="H21" t="str">
         <f t="shared" si="3"/>
         <v>00:24:00</v>
       </c>
-      <c r="I20" t="str">
+      <c r="I21" t="str">
         <f t="shared" si="9"/>
         <v>00:30:00</v>
       </c>
-      <c r="J20" t="str">
+      <c r="J21" t="str">
         <f t="shared" si="4"/>
         <v>00:36:00</v>
       </c>
-      <c r="K20" t="str">
+      <c r="K21" t="str">
         <f t="shared" si="9"/>
         <v>01:00:00</v>
       </c>
-      <c r="L20" t="str">
+      <c r="L21" t="str">
         <f t="shared" si="9"/>
         <v>01:30:00</v>
       </c>
-      <c r="M20" t="str">
+      <c r="M21" t="str">
         <f t="shared" si="5"/>
         <v>01:36:00</v>
       </c>
-      <c r="N20" t="str">
+      <c r="N21" t="str">
         <f t="shared" si="9"/>
         <v>02:06:00</v>
       </c>
-      <c r="O20" t="str">
+      <c r="O21" t="str">
         <f t="shared" si="9"/>
         <v>04:13:10</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8" t="str">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8" t="str">
         <f t="shared" si="0"/>
         <v>00:00:00</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8" t="str">
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8" t="str">
         <f t="shared" si="2"/>
         <v>00:00:00</v>
       </c>
-      <c r="H21" s="8" t="str">
+      <c r="H22" s="8" t="str">
         <f t="shared" si="3"/>
         <v>00:00:00</v>
       </c>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8" t="str">
+      <c r="I22" s="8"/>
+      <c r="J22" s="8" t="str">
         <f t="shared" si="4"/>
         <v>00:00:00</v>
       </c>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8" t="str">
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8" t="str">
         <f t="shared" si="5"/>
         <v>00:00:00</v>
       </c>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="2" t="s">
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Q21" s="3" t="s">
+      <c r="Q22" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="5"/>
-      <c r="C25" s="4" t="s">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="C26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <f ca="1">NOW()</f>
-        <v>42128.514051736114</v>
-      </c>
-      <c r="B26" s="6">
-        <v>42274.3125</v>
-      </c>
-      <c r="C26" s="7">
-        <f ca="1">DATEDIF(A26, B26, "d")</f>
-        <v>146</v>
-      </c>
-      <c r="D26" s="7" t="str">
-        <f ca="1">TEXT(B26-A26, "hh:mm:ss" )</f>
-        <v>19:09:46</v>
-      </c>
-      <c r="E26" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
-        <f ca="1">NOW()</f>
-        <v>42128.514051736114</v>
+        <f t="shared" ref="A27:A31" ca="1" si="10">NOW()</f>
+        <v>42205.630727546297</v>
       </c>
       <c r="B27" s="6">
-        <v>42316.3125</v>
+        <v>42267.3125</v>
       </c>
       <c r="C27" s="7">
-        <f ca="1">DATEDIF(A27, B27, "d")</f>
-        <v>188</v>
+        <f t="shared" ref="C27:C31" ca="1" si="11">DATEDIF(A27, B27, "d")</f>
+        <v>62</v>
       </c>
       <c r="D27" s="7" t="str">
-        <f ca="1">TEXT(B27-A27, "hh:mm:ss" )</f>
-        <v>19:09:46</v>
+        <f t="shared" ref="D27:D31" ca="1" si="12">TEXT(B27-A27, "hh:mm:ss" )</f>
+        <v>16:21:45</v>
       </c>
       <c r="E27" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <f ca="1">NOW()</f>
-        <v>42128.514051736114</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>42205.630727546297</v>
       </c>
       <c r="B28" s="6">
-        <v>42344.3125</v>
+        <v>42274.3125</v>
       </c>
       <c r="C28" s="7">
-        <f ca="1">DATEDIF(A28, B28, "d")</f>
-        <v>216</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>69</v>
       </c>
       <c r="D28" s="7" t="str">
-        <f ca="1">TEXT(B28-A28, "hh:mm:ss" )</f>
-        <v>19:09:46</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>16:21:45</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
-        <f ca="1">NOW()</f>
-        <v>42128.514051736114</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>42205.630727546297</v>
       </c>
       <c r="B29" s="6">
+        <v>42316.3125</v>
+      </c>
+      <c r="C29" s="7">
+        <f t="shared" ca="1" si="11"/>
+        <v>111</v>
+      </c>
+      <c r="D29" s="7" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>16:21:45</v>
+      </c>
+      <c r="E29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>42205.630727546297</v>
+      </c>
+      <c r="B30" s="6">
+        <v>42344.3125</v>
+      </c>
+      <c r="C30" s="7">
+        <f t="shared" ca="1" si="11"/>
+        <v>139</v>
+      </c>
+      <c r="D30" s="7" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>16:21:45</v>
+      </c>
+      <c r="E30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>42205.630727546297</v>
+      </c>
+      <c r="B31" s="6">
         <v>42351.3125</v>
       </c>
-      <c r="C29" s="7">
-        <f ca="1">DATEDIF(A29, B29, "d")</f>
-        <v>223</v>
-      </c>
-      <c r="D29" s="7" t="str">
-        <f ca="1">TEXT(B29-A29, "hh:mm:ss" )</f>
-        <v>19:09:46</v>
-      </c>
-      <c r="E29" t="s">
-        <v>30</v>
+      <c r="C31" s="7">
+        <f t="shared" ca="1" si="11"/>
+        <v>146</v>
+      </c>
+      <c r="D31" s="7" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>16:21:45</v>
+      </c>
+      <c r="E31" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1946,13 +2456,370 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="2" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" customWidth="1"/>
+    <col min="17" max="17" width="5.140625" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6" customWidth="1"/>
+    <col min="20" max="20" width="10" customWidth="1"/>
+    <col min="22" max="22" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="21"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="24"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="24"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="24"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="24"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="22"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="24"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="24"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="24"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="24"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="24"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="S11" s="26"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="4"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="28">
+        <v>42267.3125</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29">
+        <v>42274.3125</v>
+      </c>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29">
+        <v>42316.3125</v>
+      </c>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29">
+        <v>42344.3125</v>
+      </c>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29">
+        <v>42351</v>
+      </c>
+      <c r="S12" s="29"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="5"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="24"/>
+    </row>
+    <row r="14" spans="1:21" ht="62.25" thickBot="1" x14ac:dyDescent="0.95">
+      <c r="A14" s="31"/>
+      <c r="B14" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B14:R14"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="74" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
